--- a/similarities/split_global/harmonic_similarity_timestamps_68.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_68.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'A:7', 'D:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:maj', 'B:7/F#', 'E:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:44.339000', '0:00:48.135000')]</t>
+          <t>('0:00:01.150000', '0:00:05.734000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:56', '0:00:59.560000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=44.339']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=1.15</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=56.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['A:min7', 'D:7', 'G:maj6']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj6']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:23.632675', '0:00:27.452358')]</t>
+          <t>('0:00:23.940000', '0:00:28.130000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:01.500000', '0:00:06.820000')]</t>
+          <t>('0:00:35.450000', '0:00:37.190000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=23.94</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=1.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=35.45</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab'], ['Eb:7', 'Ab', 'Eb:7']]</t>
+          <t>['A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C'], ['G:7', 'C', 'G:7']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:46.580000', '0:00:48.520000'), ('0:00:32.400000', '0:00:38.760000')]</t>
+          <t>('0:00:01.920000', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000'), ('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:00:06.880000', '0:00:12.960000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=46.58', 'https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=1.92</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67', 'https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=6.88</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:7', 'Bb:7', 'Eb:7']]</t>
+          <t>['A:min/C', 'G:maj/B', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:7', 'F:7']]</t>
+          <t>['A:min', 'G', 'F']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:41.170000', '0:00:48.620000')]</t>
+          <t>('0:00:28.480000', '0:00:30.840000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.670000')]</t>
+          <t>('0:00:27.812000', '0:00:30.842000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=41.17']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=28.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=13.12']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=27.812</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:32.421428', '0:00:36.345600')]</t>
+          <t>('0:00:09.240000', '0:00:16.260000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=32.421428']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:06.220000', '0:01:12.300000')]</t>
+          <t>('0:00:23.300000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=32.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=66.22']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G/3']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:15.565442', '0:00:19.466394')]</t>
+          <t>('0:00:20.920000', '0:00:26.040000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.420000', '0:00:12.140000')]</t>
+          <t>('0:00:42.440000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=15.565442']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=5.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_174</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:32.480000', '0:00:45.820000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:16.200000', '0:00:18.460000')]</t>
+          <t>('0:01:33.100000', '0:01:51.540000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=32.48</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=16.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=93.1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>isophonics_236</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:00:11.820000', '0:00:17.361000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+          <t>('0:01:08.150589', '0:01:15.697074')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=68.150589</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.680000'), ('0:00:09.780000', '0:00:14.360000')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:19.500000'), ('0:01:14.800000', '0:01:21.060000')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>jaah_59</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['D', 'E:min7', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['Bb', 'C:min7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:05.746892')]</t>
+          <t>('0:00:30.105000', '0:00:39.805000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:48')]</t>
+          <t>('0:00:00.370000', '0:00:02.670000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=30.105</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-59#t=0.37</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C:min7', 'F:7']]</t>
+          <t>['F#:7', 'B:7', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:min7', 'C:7']]</t>
+          <t>['C:7', 'F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:08.810000', '0:00:10.510000')]</t>
+          <t>('0:00:42.050000', '0:00:45.780000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:11.840000', '0:00:16.560000')]</t>
+          <t>('0:00:39.910000', '0:00:52.200000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=8.81']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.05</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=11.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=39.91</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:41.820000', '0:00:47.891000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.140000', '0:00:09.880000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=41.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['E:7', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>['D:7', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:51.980000')]</t>
+          <t>('0:00:48.277000', '0:00:54.481000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:01.180000', '0:00:06.140000')]</t>
+          <t>('0:00:44.860000', '0:00:47.360000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=48.277</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=44.86</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G#/C', 'D#', 'G#']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:53.540000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:57.824058', '0:01:06.833401')]</t>
+          <t>('0:01:19.420000', '0:01:26.020000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=57.824058']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
